--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -1,77 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model Results"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>nº samples</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>lst, ndvi, discharge, slope, no label</t>
-  </si>
-  <si>
-    <t>13 rivers</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,45 +56,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,75 +444,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="32.86214285714286" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>nº samples</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Batch size</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>7.089797496795654</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>lst, ndvi, discharge, slope, no label</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="H2" s="5" t="n">
+        <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="4">
-        <v>7.089797496795654</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.386356353759766</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lst, ndvi_discharge_slope, no label</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22 rivers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>256</v>
       </c>
-      <c r="F2" s="5">
-        <v>119</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F3" t="n">
+        <v>204</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.832587242126465</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,390 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11.04155731201172</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.746949195861816</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18.69879150390625</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.5295568108558655</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9.235505104064941</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18.12356185913086</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2644067108631134</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5263239741325378</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9.361800193786621</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.960224151611328</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14.08549118041992</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>32</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1184797063469887</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,294 @@
         <v>100</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.105231046676636</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.826441526412964</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>479</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.649726748466492</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.498947024345398</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>479</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.603631377220154</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>256</v>
+      </c>
+      <c r="F20" t="n">
+        <v>479</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.875593662261963</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>256</v>
+      </c>
+      <c r="F21" t="n">
+        <v>479</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.114682197570801</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>256</v>
+      </c>
+      <c r="F22" t="n">
+        <v>479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.911447048187256</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>256</v>
+      </c>
+      <c r="F23" t="n">
+        <v>479</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.835327744483948</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,6 +883,411 @@
         <v>176.92</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.127864122390747</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>479</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11:32:05</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>216.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.72034740447998</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>479</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11:36:03</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>236.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.189368486404419</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>479</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11:40:35</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>270.19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.986365795135498</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>479</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11:44:10</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>213.41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.099032402038574</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11:48:06</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>234.29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.969117999076843</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>11:52:28</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.852157473564148</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>479</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11:56:02</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>212.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.652444362640381</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>11:59:54</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.996304750442505</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>479</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12:04:11</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>255.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/CNN_results.xlsx
+++ b/results/CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +485,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.015115022659302</v>
+        <v>2.961100816726685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, ndvi, discharge, slope, altitude, label</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,16 +516,16 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17:31:08</t>
+          <t>13:28:54</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>86.63</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -535,11 +535,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.180322408676147</v>
+        <v>2.647387981414795</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, ndvi, discharge, slope, altitude, no label</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,122 +562,22 @@
         <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>17:32:43</t>
+          <t>13:30:55</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>93.20999999999999</v>
+        <v>80.94</v>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.947011232376099</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>256</v>
-      </c>
-      <c r="F4" t="n">
-        <v>147</v>
-      </c>
-      <c r="G4" t="n">
-        <v>32</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>17:34:12</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2.32226824760437</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>256</v>
-      </c>
-      <c r="F5" t="n">
-        <v>147</v>
-      </c>
-      <c r="G5" t="n">
-        <v>32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>17:35:48</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>95.31999999999999</v>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>
